--- a/bh3/501125668724547572_2021-03-12_10-23-32.xlsx
+++ b/bh3/501125668724547572_2021-03-12_10-23-32.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -546,10 +562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:21:47</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44302.76512731481</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -621,10 +635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-20 08:30:05</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44275.35422453703</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -696,10 +708,8 @@
           <t>4259419281</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-13 14:41:54</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44268.61243055556</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -767,10 +777,8 @@
           <t>4259074658</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-13 13:17:21</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44268.55371527778</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -830,10 +838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-13 13:05:44</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44268.54564814815</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -906,10 +912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-13 11:38:06</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44268.48479166667</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -981,10 +985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-13 09:12:51</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44268.38392361111</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1052,10 +1054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-13 02:09:27</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44268.08989583333</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1131,10 +1131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-13 01:11:26</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44268.04960648148</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1198,10 +1196,8 @@
           <t>4257378585</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-13 01:07:39</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44268.04697916667</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1269,10 +1265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-12 23:35:53</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44267.98325231481</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1339,10 +1333,8 @@
           <t>4256087015</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-12 21:32:37</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44267.89765046296</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1410,10 +1402,8 @@
           <t>4256087015</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-12 20:50:44</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44267.86856481482</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1489,10 +1479,8 @@
           <t>4253681271</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-12 20:41:52</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44267.86240740741</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1552,10 +1540,8 @@
           <t>4253681271</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-12 20:40:00</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44267.86111111111</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1615,10 +1601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-12 20:36:38</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44267.85877314815</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1690,10 +1674,8 @@
           <t>4253628434</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-12 20:36:15</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44267.85850694445</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1766,10 +1748,8 @@
           <t>4253681271</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-12 20:22:56</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44267.84925925926</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1845,10 +1825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-12 19:52:52</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44267.82837962963</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1916,10 +1894,8 @@
           <t>4255339488</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-12 18:23:44</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44267.76648148148</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1991,10 +1967,8 @@
           <t>4255337817</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-12 18:22:45</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44267.76579861111</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2066,10 +2040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-12 17:58:27</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44267.74892361111</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2133,10 +2105,8 @@
           <t>4255199602</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-12 17:56:18</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44267.74743055556</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2212,10 +2182,8 @@
           <t>4254957473</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-12 16:59:05</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44267.70769675926</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2291,10 +2259,8 @@
           <t>4254949322</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-12 16:57:35</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44267.7066550926</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2358,10 +2324,8 @@
           <t>4254808145</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-12 16:17:40</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44267.67893518518</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2429,10 +2393,8 @@
           <t>4254529808</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:48:33</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44267.61704861111</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2500,10 +2462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:47:44</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44267.61648148148</v>
       </c>
       <c r="I29" t="n">
         <v>6</v>
@@ -2571,10 +2531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:31:13</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44267.60501157407</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2644,10 +2602,8 @@
           <t>4253681271</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:27:05</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44267.6021412037</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2711,10 +2667,8 @@
           <t>4254468393</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:27:02</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44267.60210648148</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2786,10 +2740,8 @@
           <t>4254463780</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:26:49</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44267.60195601852</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2858,10 +2810,8 @@
           <t>4254168204</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:10:48</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44267.59083333334</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2929,10 +2879,8 @@
           <t>4254412707</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:09:20</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44267.58981481481</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3004,10 +2952,8 @@
           <t>4253610855</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:54:01</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44267.57917824074</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3075,10 +3021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:45:54</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44267.57354166666</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3147,10 +3091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:33:16</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44267.56476851852</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3218,10 +3160,8 @@
           <t>4254283158</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:29:26</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44267.56210648148</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3285,10 +3225,8 @@
           <t>4254273018</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:25:14</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44267.55918981481</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3360,10 +3298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:22:26</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44267.55724537037</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3427,10 +3363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:20:47</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44267.55609953704</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3495,10 +3429,8 @@
           <t>4254248206</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:19:46</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44267.55539351852</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3567,10 +3499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:19:41</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44267.55533564815</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3638,10 +3568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:12:32</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44267.55037037037</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
@@ -3709,10 +3637,8 @@
           <t>4253666958</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:06:12</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44267.54597222222</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3784,10 +3710,8 @@
           <t>4254191688</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:04:54</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44267.54506944444</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -3859,10 +3783,8 @@
           <t>4253681271</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:03:18</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44267.54395833334</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
@@ -3930,10 +3852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:02:29</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44267.5433912037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3997,10 +3917,8 @@
           <t>4254168204</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:59:11</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44267.54109953704</v>
       </c>
       <c r="I50" t="n">
         <v>4</v>
@@ -4068,10 +3986,8 @@
           <t>4254157804</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:57:49</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44267.54015046296</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
@@ -4147,10 +4063,8 @@
           <t>4254007313</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:57:36</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44267.54</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4218,10 +4132,8 @@
           <t>4254143660</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:55:00</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44267.53819444445</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4289,10 +4201,8 @@
           <t>4254139687</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:53:21</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44267.53704861111</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4360,10 +4270,8 @@
           <t>4254140895</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:53:07</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44267.53688657407</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4439,10 +4347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:48:49</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44267.53390046296</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4510,10 +4416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:47:18</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44267.53284722222</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4581,10 +4485,8 @@
           <t>4253620253</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:44:01</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44267.53056712963</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4644,10 +4546,8 @@
           <t>4254072808</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:38:06</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44267.52645833333</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4723,10 +4623,8 @@
           <t>4253598346</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:33:54</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44267.52354166667</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4794,10 +4692,8 @@
           <t>4254048007</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:32:53</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44267.52283564815</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4865,10 +4761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:32:20</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44267.52245370371</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4928,10 +4822,8 @@
           <t>4254038502</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:31:56</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44267.52217592593</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4995,10 +4887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:31:46</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44267.52206018518</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5070,10 +4960,8 @@
           <t>4254041927</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:31:07</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44267.5216087963</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5141,10 +5029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:30:16</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44267.52101851852</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5216,10 +5102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:29:47</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44267.52068287037</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5283,10 +5167,8 @@
           <t>4254023563</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:28:41</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44267.51991898148</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5354,10 +5236,8 @@
           <t>4254021526</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:27:22</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44267.51900462963</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5425,10 +5305,8 @@
           <t>4254025261</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:26:54</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44267.51868055556</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5496,10 +5374,8 @@
           <t>4254017495</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:26:12</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44267.51819444444</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5567,10 +5443,8 @@
           <t>4254007313</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:24:32</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44267.51703703704</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5640,10 +5514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:23:49</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44267.51653935185</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5707,10 +5579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:22:27</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44267.51559027778</v>
       </c>
       <c r="I74" t="n">
         <v>10</v>
@@ -5782,10 +5652,8 @@
           <t>4254001306</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:22:09</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44267.51538194445</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5849,10 +5717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:21:34</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44267.51497685185</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5928,10 +5794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:19:20</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44267.51342592593</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6008,10 +5872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:18:38</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44267.51293981481</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6083,10 +5945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:15:27</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44267.51072916666</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6162,10 +6022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:14:00</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44267.50972222222</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6237,10 +6095,8 @@
           <t>4253610855</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:11:29</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44267.50797453704</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6308,10 +6164,8 @@
           <t>4253610855</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:10:32</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44267.50731481481</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6383,10 +6237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:08:42</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44267.50604166667</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6450,10 +6302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:06:58</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44267.50483796297</v>
       </c>
       <c r="I84" t="n">
         <v>6</v>
@@ -6521,10 +6371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:03:37</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44267.50251157407</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6600,10 +6448,8 @@
           <t>4253908731</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:02:19</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44267.50160879629</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6675,10 +6521,8 @@
           <t>4253910866</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:01:22</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44267.50094907408</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6754,10 +6598,8 @@
           <t>4253902154</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:00:07</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44267.50008101852</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6825,10 +6667,8 @@
           <t>4253848357</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:59:47</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44267.49984953704</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6904,10 +6744,8 @@
           <t>4253848357</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:59:14</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44267.49946759259</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6967,10 +6805,8 @@
           <t>4253894362</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:59:11</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44267.49943287037</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7046,10 +6882,8 @@
           <t>4253894069</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:58:56</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44267.49925925926</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7121,10 +6955,8 @@
           <t>4253884431</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:56:27</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44267.49753472222</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7200,10 +7032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:56:12</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44267.49736111111</v>
       </c>
       <c r="I94" t="n">
         <v>23</v>
@@ -7279,10 +7109,8 @@
           <t>4253879732</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:55:16</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44267.49671296297</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7358,10 +7186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:54:21</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44267.49607638889</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7429,10 +7255,8 @@
           <t>4253877259</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:53:15</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44267.4953125</v>
       </c>
       <c r="I97" t="n">
         <v>13</v>
@@ -7500,10 +7324,8 @@
           <t>4253876731</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:52:50</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44267.49502314815</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7580,10 +7402,8 @@
           <t>4253687913</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:52:21</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44267.4946875</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7655,10 +7475,8 @@
           <t>4253871334</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:51:11</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44267.49387731482</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7726,10 +7544,8 @@
           <t>4253848357</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:50:39</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44267.49350694445</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7802,10 +7618,8 @@
           <t>4253687913</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:48:48</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44267.49222222222</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7873,10 +7687,8 @@
           <t>4253848357</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:48:45</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44267.4921875</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7944,10 +7756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:48:23</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44267.49193287037</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8011,10 +7821,8 @@
           <t>4253685663</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:46:06</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44267.49034722222</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8086,10 +7894,8 @@
           <t>4253848357</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:45:40</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44267.4900462963</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8153,10 +7959,8 @@
           <t>4253687913</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:45:34</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44267.48997685185</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8228,10 +8032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:44:14</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44267.48905092593</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8307,10 +8109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:42:26</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44267.48780092593</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8378,10 +8178,8 @@
           <t>4253833998</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:41:52</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44267.48740740741</v>
       </c>
       <c r="I110" t="n">
         <v>3</v>
@@ -8457,10 +8255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:40:41</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44267.48658564815</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8528,10 +8324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:39:48</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44267.48597222222</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8603,10 +8397,8 @@
           <t>4253831372</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:39:35</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44267.48582175926</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8674,10 +8466,8 @@
           <t>4253666958</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:37:46</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44267.48456018518</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8754,10 +8544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:37:44</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44267.48453703704</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8833,10 +8621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:37:12</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44267.48416666667</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8912,10 +8698,8 @@
           <t>4253814432</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:36:30</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44267.48368055555</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8983,10 +8767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:36:21</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44267.48357638889</v>
       </c>
       <c r="I118" t="n">
         <v>28</v>
@@ -9058,10 +8840,8 @@
           <t>4253687913</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:35:47</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44267.48318287037</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9129,10 +8909,8 @@
           <t>4253813594</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:35:44</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44267.48314814815</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9209,10 +8987,8 @@
           <t>4253808904</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:34:26</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44267.48224537037</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9276,10 +9052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:34:17</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44267.48214120371</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9347,10 +9121,8 @@
           <t>4253815616</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:34:14</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44267.48210648148</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9422,10 +9194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:33:48</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44267.48180555556</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9501,10 +9271,8 @@
           <t>4253681271</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:55</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44267.48119212963</v>
       </c>
       <c r="I125" t="n">
         <v>2</v>
@@ -9580,10 +9348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:31:22</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44267.48011574074</v>
       </c>
       <c r="I126" t="n">
         <v>10</v>
@@ -9651,10 +9417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:31:17</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44267.48005787037</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9730,10 +9494,8 @@
           <t>4253685663</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:30:20</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44267.47939814815</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9805,10 +9567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:30:06</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44267.47923611111</v>
       </c>
       <c r="I129" t="n">
         <v>2</v>
@@ -9884,10 +9644,8 @@
           <t>4253681271</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:29:59</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44267.47915509259</v>
       </c>
       <c r="I130" t="n">
         <v>7</v>
@@ -9955,10 +9713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:29:44</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44267.47898148148</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10026,10 +9782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:29:25</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44267.47876157407</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10093,10 +9847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:28:41</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44267.47825231482</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10156,10 +9908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:28:12</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44267.47791666666</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10223,10 +9973,8 @@
           <t>4253788867</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:28:03</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44267.4778125</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10294,10 +10042,8 @@
           <t>4253791520</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:27:43</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44267.47758101852</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10361,10 +10107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:27:27</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44267.47739583333</v>
       </c>
       <c r="I137" t="n">
         <v>26</v>
@@ -10436,10 +10180,8 @@
           <t>4253791181</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:27:24</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44267.47736111111</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10515,10 +10257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:27:22</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44267.47733796296</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10587,10 +10327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:26:22</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44267.47664351852</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10650,10 +10388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:26:19</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44267.4766087963</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10729,10 +10465,8 @@
           <t>4253786540</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:25:55</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44267.47633101852</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10800,10 +10534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:25:51</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44267.47628472222</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10869,10 +10601,8 @@
           <t>4253681271</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:25:48</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44267.47625</v>
       </c>
       <c r="I144" t="n">
         <v>6</v>
@@ -10940,10 +10670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:25:20</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44267.47592592592</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11011,10 +10739,8 @@
           <t>4253778519</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:25:01</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44267.47570601852</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11082,10 +10808,8 @@
           <t>4253681271</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:24:42</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44267.47548611111</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11162,10 +10886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:24:21</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44267.47524305555</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11233,10 +10955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:23:26</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44267.47460648148</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11305,10 +11025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:23:09</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44267.47440972222</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11384,10 +11102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:22:26</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44267.47391203704</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11455,10 +11171,8 @@
           <t>4253775311</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:22:03</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44267.47364583334</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11530,10 +11244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:21:47</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44267.47346064815</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11593,10 +11305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:20:18</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44267.47243055556</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11664,10 +11374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:19:38</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44267.4719675926</v>
       </c>
       <c r="I155" t="n">
         <v>6</v>
@@ -11743,10 +11451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:19:30</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44267.471875</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11810,10 +11516,8 @@
           <t>4253762240</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:19:17</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44267.47172453703</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11885,10 +11589,8 @@
           <t>4253649054</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:18:32</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44267.4712037037</v>
       </c>
       <c r="I158" t="n">
         <v>6</v>
@@ -11964,10 +11666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:18:24</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44267.47111111111</v>
       </c>
       <c r="I159" t="n">
         <v>2</v>
@@ -12035,10 +11735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:18:18</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44267.47104166666</v>
       </c>
       <c r="I160" t="n">
         <v>5</v>
@@ -12114,10 +11812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:17:59</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44267.47082175926</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12185,10 +11881,8 @@
           <t>4253757058</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:17:10</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44267.47025462963</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12256,10 +11950,8 @@
           <t>4253752741</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:16:41</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44267.46991898148</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12335,10 +12027,8 @@
           <t>4253749013</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:16:17</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44267.4696412037</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12414,10 +12104,8 @@
           <t>4253620253</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:15:56</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44267.46939814815</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12489,10 +12177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:15:44</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44267.46925925926</v>
       </c>
       <c r="I166" t="n">
         <v>6</v>
@@ -12560,10 +12246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:15:10</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44267.46886574074</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12627,10 +12311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:14:41</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44267.46853009259</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12707,10 +12389,8 @@
           <t>4253746705</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:14:08</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44267.46814814815</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12782,10 +12462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:14:03</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44267.46809027778</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12853,10 +12531,8 @@
           <t>4253746607</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:14:03</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44267.46809027778</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12932,10 +12608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:13:44</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44267.46787037037</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13007,10 +12681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:13:14</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44267.46752314815</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13078,10 +12750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:11:26</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44267.46627314815</v>
       </c>
       <c r="I174" t="n">
         <v>5</v>
@@ -13157,10 +12827,8 @@
           <t>4253732662</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:10:23</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44267.46554398148</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13237,10 +12905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:10:08</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44267.46537037037</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13308,10 +12974,8 @@
           <t>4253620253</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:09:41</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44267.46505787037</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13371,10 +13035,8 @@
           <t>4253724870</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:09:18</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44267.46479166667</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13446,10 +13108,8 @@
           <t>4253681271</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:09:07</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44267.46466435185</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13521,10 +13181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:08:25</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44267.46417824074</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13596,10 +13254,8 @@
           <t>4253681271</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:08:07</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44267.46396990741</v>
       </c>
       <c r="I181" t="n">
         <v>3</v>
@@ -13675,10 +13331,8 @@
           <t>4253723419</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:07:59</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44267.46387731482</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13750,10 +13404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:07:52</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44267.4637962963</v>
       </c>
       <c r="I183" t="n">
         <v>8</v>
@@ -13829,10 +13481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:07:42</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44267.46368055556</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13896,10 +13546,8 @@
           <t>4253718418</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:06:22</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44267.46275462963</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13975,10 +13623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:06:14</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44267.46266203704</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14050,10 +13696,8 @@
           <t>4253629088</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:05:34</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44267.46219907407</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14125,10 +13769,8 @@
           <t>4253714554</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:05:21</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44267.46204861111</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14200,10 +13842,8 @@
           <t>4253636336</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:05:20</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44267.46203703704</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14275,10 +13915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:05:14</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44267.46196759259</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14346,10 +13984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:05:11</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44267.46193287037</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14413,10 +14049,8 @@
           <t>4253666958</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:05:05</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44267.46186342592</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14488,10 +14122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:04:22</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44267.46136574074</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14567,10 +14199,8 @@
           <t>4253620253</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:04:10</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44267.46122685185</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14642,10 +14272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:04:03</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44267.46114583333</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14721,10 +14349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:03:47</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44267.46096064815</v>
       </c>
       <c r="I196" t="n">
         <v>482</v>
@@ -14788,10 +14414,8 @@
           <t>4253708855</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:03:39</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44267.46086805555</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14863,10 +14487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:03:24</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44267.46069444445</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14938,10 +14560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:03:21</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44267.46065972222</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15009,10 +14629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:02:40</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44267.46018518518</v>
       </c>
       <c r="I200" t="n">
         <v>3</v>
@@ -15076,10 +14694,8 @@
           <t>4253681271</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:02:27</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44267.46003472222</v>
       </c>
       <c r="I201" t="n">
         <v>3</v>
@@ -15143,10 +14759,8 @@
           <t>4253711472</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:02:26</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44267.46002314815</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15222,10 +14836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:02:21</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44267.45996527778</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15289,10 +14901,8 @@
           <t>4253707304</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:02:12</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44267.45986111111</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15360,10 +14970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:02:09</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44267.45982638889</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15439,10 +15047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:02:07</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44267.45980324074</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15510,10 +15116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:01:43</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44267.45952546296</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15581,10 +15185,8 @@
           <t>4253703096</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:01:22</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44267.45928240741</v>
       </c>
       <c r="I208" t="n">
         <v>17</v>
@@ -15648,10 +15250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:01:12</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44267.45916666667</v>
       </c>
       <c r="I209" t="n">
         <v>3</v>
@@ -15715,10 +15315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:01:05</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44267.45908564814</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15794,10 +15392,8 @@
           <t>4253624740</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:00:28</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44267.45865740741</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15869,10 +15465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:00:12</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44267.45847222222</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15940,10 +15534,8 @@
           <t>4253677777</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:59:50</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44267.45821759259</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16003,10 +15595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:59:38</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44267.4580787037</v>
       </c>
       <c r="I214" t="n">
         <v>25</v>
@@ -16074,10 +15664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:59:12</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44267.45777777778</v>
       </c>
       <c r="I215" t="n">
         <v>5</v>
@@ -16153,10 +15741,8 @@
           <t>4253694175</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:59:12</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44267.45777777778</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16228,10 +15814,8 @@
           <t>4253693469</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:58:29</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44267.4572800926</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16303,10 +15887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:58:10</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44267.45706018519</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16382,10 +15964,8 @@
           <t>4253692834</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:57:52</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44267.45685185185</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16461,10 +16041,8 @@
           <t>4253620253</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:57:28</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44267.45657407407</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16532,10 +16110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:56:55</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44267.45619212963</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16611,10 +16187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:56:39</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44267.45600694444</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16678,10 +16252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:56:19</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44267.45577546296</v>
       </c>
       <c r="I223" t="n">
         <v>7</v>
@@ -16753,10 +16325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:56:14</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44267.45571759259</v>
       </c>
       <c r="I224" t="n">
         <v>3</v>
@@ -16824,10 +16394,8 @@
           <t>4253687913</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:56:11</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44267.45568287037</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16899,10 +16467,8 @@
           <t>4253690302</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:55:18</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44267.45506944445</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16974,10 +16540,8 @@
           <t>4253684173</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:55:07</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44267.45494212963</v>
       </c>
       <c r="I227" t="n">
         <v>25</v>
@@ -17045,10 +16609,8 @@
           <t>4253658047</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:54:53</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44267.45478009259</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17120,10 +16682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:54:29</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44267.45450231482</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17197,10 +16757,8 @@
           <t>4253686119</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:54:24</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44267.45444444445</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17272,10 +16830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:54:16</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44267.45435185185</v>
       </c>
       <c r="I231" t="n">
         <v>7</v>
@@ -17339,10 +16895,8 @@
           <t>4253685663</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:53:56</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44267.45412037037</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17414,10 +16968,8 @@
           <t>4253658047</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:53:39</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44267.45392361111</v>
       </c>
       <c r="I233" t="n">
         <v>7</v>
@@ -17481,10 +17033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:53:24</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44267.45375</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17558,10 +17108,8 @@
           <t>4253610855</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:53:20</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44267.4537037037</v>
       </c>
       <c r="I235" t="n">
         <v>14</v>
@@ -17629,10 +17177,8 @@
           <t>4253678017</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:53:03</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44267.45350694445</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17704,10 +17250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:52:50</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44267.45335648148</v>
       </c>
       <c r="I237" t="n">
         <v>9</v>
@@ -17783,10 +17327,8 @@
           <t>4253677777</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:52:48</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44267.45333333333</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17854,10 +17396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:52:36</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44267.45319444445</v>
       </c>
       <c r="I239" t="n">
         <v>21</v>
@@ -17929,10 +17469,8 @@
           <t>4253681271</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:52:08</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44267.45287037037</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18008,10 +17546,8 @@
           <t>4253644420</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:52:00</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44267.45277777778</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18079,10 +17615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:51:58</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44267.45275462963</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18158,10 +17692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:51:44</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44267.45259259259</v>
       </c>
       <c r="I243" t="n">
         <v>2</v>
@@ -18237,10 +17769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:51:41</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44267.45255787037</v>
       </c>
       <c r="I244" t="n">
         <v>23</v>
@@ -18308,10 +17838,8 @@
           <t>4253680845</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:51:40</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44267.4525462963</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18383,10 +17911,8 @@
           <t>4253676352</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:51:21</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44267.45232638889</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18458,10 +17984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:51:10</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44267.45219907408</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18533,10 +18057,8 @@
           <t>4253671734</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:49:54</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44267.45131944444</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18612,10 +18134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:49:48</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44267.45125</v>
       </c>
       <c r="I249" t="n">
         <v>72</v>
@@ -18687,10 +18207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:49:29</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44267.45103009259</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18754,10 +18272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:48:51</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44267.45059027777</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18825,10 +18341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:48:51</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44267.45059027777</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18904,10 +18418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:48:41</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44267.45047453704</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18975,10 +18487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:48:31</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44267.4503587963</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19042,10 +18552,8 @@
           <t>4253620253</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:48:23</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44267.4502662037</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19113,10 +18621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:48:12</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44267.45013888889</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19195,10 +18701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:48:07</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44267.45008101852</v>
       </c>
       <c r="I257" t="n">
         <v>21</v>
@@ -19266,10 +18770,8 @@
           <t>4253663013</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:47:59</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44267.44998842593</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19337,10 +18839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:47:45</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44267.44982638889</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19412,10 +18912,8 @@
           <t>4253620253</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:47:41</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44267.44978009259</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19491,10 +18989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:47:40</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44267.44976851852</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19570,10 +19066,8 @@
           <t>4253666958</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:47:36</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44267.44972222222</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19641,10 +19135,8 @@
           <t>4253628434</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:47:18</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44267.44951388889</v>
       </c>
       <c r="I263" t="n">
         <v>34</v>
@@ -19708,10 +19200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:47:02</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44267.4493287037</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19787,10 +19277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:46:44</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44267.44912037037</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19854,10 +19342,8 @@
           <t>4253661323</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:46:13</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44267.44876157407</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19933,10 +19419,8 @@
           <t>4253658047</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:46:06</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44267.44868055556</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20008,10 +19492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:45:39</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44267.44836805556</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20087,10 +19569,8 @@
           <t>4253654545</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:44:55</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44267.44785879629</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20158,10 +19638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:44:52</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44267.44782407407</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20233,10 +19711,8 @@
           <t>4253620253</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:44:33</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44267.44760416666</v>
       </c>
       <c r="I271" t="n">
         <v>3</v>
@@ -20296,10 +19772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:44:29</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44267.44755787037</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20375,10 +19849,8 @@
           <t>4253649654</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:44:27</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44267.44753472223</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20450,10 +19922,8 @@
           <t>4253649054</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:43:50</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44267.44710648148</v>
       </c>
       <c r="I274" t="n">
         <v>12</v>
@@ -20513,10 +19983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:43:40</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44267.44699074074</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20580,10 +20048,8 @@
           <t>4253655275</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:43:12</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44267.44666666666</v>
       </c>
       <c r="I276" t="n">
         <v>2</v>
@@ -20651,10 +20117,8 @@
           <t>4253644420</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:42:18</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44267.44604166667</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20731,10 +20195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:42:10</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44267.44594907408</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20798,10 +20260,8 @@
           <t>4253643882</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:41:44</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44267.44564814815</v>
       </c>
       <c r="I279" t="n">
         <v>2</v>
@@ -20869,10 +20329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:41:36</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44267.44555555555</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20940,10 +20398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:41:23</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44267.44540509259</v>
       </c>
       <c r="I281" t="n">
         <v>4</v>
@@ -21015,10 +20471,8 @@
           <t>4253646066</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:40:49</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44267.44501157408</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21094,10 +20548,8 @@
           <t>4253618913</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:40:33</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44267.44482638889</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21165,10 +20617,8 @@
           <t>4253620253</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:39:55</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44267.44438657408</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21244,10 +20694,8 @@
           <t>4253601161</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:39:46</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44267.44428240741</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21319,10 +20767,8 @@
           <t>4253634969</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:39:42</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44267.44423611111</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21394,10 +20840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:39:22</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44267.44400462963</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21465,10 +20909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:38:50</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44267.44363425926</v>
       </c>
       <c r="I288" t="n">
         <v>2</v>
@@ -21539,10 +20981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:38:00</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44267.44305555556</v>
       </c>
       <c r="I289" t="n">
         <v>538</v>
@@ -21610,10 +21050,8 @@
           <t>4253628434</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:37:38</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44267.44280092593</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21677,10 +21115,8 @@
           <t>4253629533</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:37:09</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44267.44246527777</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21744,10 +21180,8 @@
           <t>4253637009</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:36:54</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44267.44229166667</v>
       </c>
       <c r="I292" t="n">
         <v>23</v>
@@ -21811,10 +21245,8 @@
           <t>4253629088</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:36:40</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44267.44212962963</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21890,10 +21322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:36:31</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44267.44202546297</v>
       </c>
       <c r="I294" t="n">
         <v>4</v>
@@ -21969,10 +21399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:36:16</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44267.44185185185</v>
       </c>
       <c r="I295" t="n">
         <v>2</v>
@@ -22040,10 +21468,8 @@
           <t>4253618913</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:36:13</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44267.44181712963</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22119,10 +21545,8 @@
           <t>4253636336</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:36:12</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44267.44180555556</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22186,10 +21610,8 @@
           <t>4253628434</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:36:01</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44267.44167824074</v>
       </c>
       <c r="I298" t="n">
         <v>19</v>
@@ -22253,10 +21675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:35:37</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44267.44140046297</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22332,10 +21752,8 @@
           <t>4253630915</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:35:36</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44267.44138888889</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22412,10 +21830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:35:34</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44267.44136574074</v>
       </c>
       <c r="I301" t="n">
         <v>34</v>
@@ -22483,10 +21899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:35:27</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44267.44128472222</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22558,10 +21972,8 @@
           <t>4253627922</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:35:27</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44267.44128472222</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22637,10 +22049,8 @@
           <t>4253618913</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:35:14</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44267.44113425926</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22716,10 +22126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:34:55</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44267.44091435185</v>
       </c>
       <c r="I305" t="n">
         <v>9</v>
@@ -22783,10 +22191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:34:52</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44267.44087962963</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22846,10 +22252,8 @@
           <t>4253624740</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:34:30</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44267.440625</v>
       </c>
       <c r="I307" t="n">
         <v>18</v>
@@ -22917,10 +22321,8 @@
           <t>4253618913</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:34:29</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44267.44061342593</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -22984,10 +22386,8 @@
           <t>4253609061</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:34:20</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44267.44050925926</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23055,10 +22455,8 @@
           <t>4253619603</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:34:13</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44267.44042824074</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23126,10 +22524,8 @@
           <t>4253620253</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:33:35</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44267.43998842593</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23189,10 +22585,8 @@
           <t>4253619003</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:33:35</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44267.43998842593</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23269,10 +22663,8 @@
           <t>4253618913</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:33:30</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44267.43993055556</v>
       </c>
       <c r="I313" t="n">
         <v>2</v>
@@ -23337,10 +22729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:33:27</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44267.43989583333</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23404,10 +22794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:33:24</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44267.43986111111</v>
       </c>
       <c r="I315" t="n">
         <v>673</v>
@@ -23471,10 +22859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:33:17</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44267.43978009259</v>
       </c>
       <c r="I316" t="n">
         <v>24</v>
@@ -23546,10 +22932,8 @@
           <t>4253623495</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:33:16</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44267.43976851852</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23617,10 +23001,8 @@
           <t>4253618382</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:32:56</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44267.43953703704</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23692,10 +23074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:32:55</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44267.43952546296</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23763,10 +23143,8 @@
           <t>4253625471</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:32:52</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44267.43949074074</v>
       </c>
       <c r="I320" t="n">
         <v>13</v>
@@ -23838,10 +23216,8 @@
           <t>4253620253</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:32:09</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44267.43899305556</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23913,10 +23289,8 @@
           <t>4253614411</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:31:46</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44267.43872685185</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23992,10 +23366,8 @@
           <t>4253620253</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:31:40</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44267.43865740741</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24071,10 +23443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:31:26</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44267.43849537037</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24150,10 +23520,8 @@
           <t>4253616489</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:31:00</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44267.43819444445</v>
       </c>
       <c r="I325" t="n">
         <v>2</v>
@@ -24221,10 +23589,8 @@
           <t>4253613579</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:30:53</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44267.43811342592</v>
       </c>
       <c r="I326" t="n">
         <v>9</v>
@@ -24292,10 +23658,8 @@
           <t>4253609426</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:30:31</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44267.43785879629</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24355,10 +23719,8 @@
           <t>4253620922</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:30:30</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44267.43784722222</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24434,10 +23796,8 @@
           <t>4253611672</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:30:20</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44267.43773148148</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24509,10 +23869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:30:16</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44267.43768518518</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24588,10 +23946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:30:04</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44267.4375462963</v>
       </c>
       <c r="I331" t="n">
         <v>899</v>
@@ -24667,10 +24023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:29:45</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44267.43732638889</v>
       </c>
       <c r="I332" t="n">
         <v>9</v>
@@ -24742,10 +24096,8 @@
           <t>4253620253</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:29:43</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44267.43730324074</v>
       </c>
       <c r="I333" t="n">
         <v>4</v>
@@ -24805,10 +24157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:29:16</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44267.43699074074</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24884,10 +24234,8 @@
           <t>4253611672</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:29:09</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44267.43690972222</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24963,10 +24311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:28:49</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44267.43667824074</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25034,10 +24380,8 @@
           <t>4253611672</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:28:47</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44267.43665509259</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25109,10 +24453,8 @@
           <t>4253609426</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:28:45</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44267.43663194445</v>
       </c>
       <c r="I338" t="n">
         <v>12</v>
@@ -25188,10 +24530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:28:45</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44267.43663194445</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25267,10 +24607,8 @@
           <t>4253609061</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:28:21</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44267.43635416667</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -25334,10 +24672,8 @@
           <t>4253611244</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:28:20</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44267.43634259259</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25405,10 +24741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:28:15</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44267.43628472222</v>
       </c>
       <c r="I342" t="n">
         <v>290</v>
@@ -25480,10 +24814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:28:12</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44267.43625</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25551,10 +24883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:28:04</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44267.43615740741</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25630,10 +24960,8 @@
           <t>4253603749</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:28:00</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44267.43611111111</v>
       </c>
       <c r="I345" t="n">
         <v>13</v>
@@ -25705,10 +25033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:27:56</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44267.43606481481</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25772,10 +25098,8 @@
           <t>4253610855</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:27:55</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44267.43605324074</v>
       </c>
       <c r="I347" t="n">
         <v>83</v>
@@ -25848,10 +25172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:27:54</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44267.43604166667</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25911,10 +25233,8 @@
           <t>4253607986</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:27:08</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44267.43550925926</v>
       </c>
       <c r="I349" t="n">
         <v>4</v>
@@ -25986,10 +25306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:27:00</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44267.43541666667</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -26057,10 +25375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:26:55</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44267.4353587963</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26124,10 +25440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:26:51</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44267.4353125</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26191,10 +25505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:26:45</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44267.43524305556</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26258,10 +25570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:26:44</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44267.43523148148</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26337,10 +25647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:26:42</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44267.43520833334</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26416,10 +25724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:26:06</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44267.43479166667</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26491,10 +25797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:25:56</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44267.43467592593</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26558,10 +25862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:25:55</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44267.43466435185</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26629,10 +25931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:25:40</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44267.43449074074</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26700,10 +26000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:25:33</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44267.43440972222</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26771,10 +26069,8 @@
           <t>4253606335</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:25:20</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44267.43425925926</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26846,10 +26142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:25:15</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44267.43420138889</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26917,10 +26211,8 @@
           <t>4253598346</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:25:08</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44267.43412037037</v>
       </c>
       <c r="I363" t="n">
         <v>4</v>
@@ -26988,10 +26280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:25:07</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44267.4341087963</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27055,10 +26345,8 @@
           <t>4253601161</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:25:07</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44267.4341087963</v>
       </c>
       <c r="I365" t="n">
         <v>29</v>
@@ -27134,10 +26422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:25:05</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44267.43408564815</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -27210,10 +26496,8 @@
           <t>4253601030</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:58</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44267.43400462963</v>
       </c>
       <c r="I367" t="n">
         <v>76</v>
@@ -27281,10 +26565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:55</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44267.4339699074</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27352,10 +26634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:55</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44267.4339699074</v>
       </c>
       <c r="I369" t="n">
         <v>79</v>
@@ -27419,10 +26699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:55</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44267.4339699074</v>
       </c>
       <c r="I370" t="n">
         <v>18</v>
@@ -27498,10 +26776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:50</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44267.43391203704</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27569,10 +26845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:49</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44267.43390046297</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27644,10 +26918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:46</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44267.43386574074</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27724,10 +26996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:45</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44267.43385416667</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27799,10 +27069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:44</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44267.4338425926</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27866,10 +27134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:39</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44267.43378472222</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27937,10 +27203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:31</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44267.43369212963</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28016,10 +27280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:29</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44267.43366898148</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28083,10 +27345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:27</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44267.43364583333</v>
       </c>
       <c r="I379" t="n">
         <v>2</v>
@@ -28158,10 +27418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:27</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44267.43364583333</v>
       </c>
       <c r="I380" t="n">
         <v>6</v>
@@ -28237,10 +27495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:26</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44267.43363425926</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28316,10 +27572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:21</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44267.43357638889</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28383,10 +27637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:21</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44267.43357638889</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28462,10 +27714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:18</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44267.43354166667</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28537,10 +27787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:14</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44267.43349537037</v>
       </c>
       <c r="I385" t="n">
         <v>3</v>
@@ -28616,10 +27864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:11</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44267.43346064815</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28691,10 +27937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:11</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44267.43346064815</v>
       </c>
       <c r="I387" t="n">
         <v>1</v>
@@ -28766,10 +28010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:11</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44267.43346064815</v>
       </c>
       <c r="I388" t="n">
         <v>2070</v>
@@ -28833,10 +28075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:11</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44267.43346064815</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28908,10 +28148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:10</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44267.43344907407</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28987,10 +28225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:10</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44267.43344907407</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29054,10 +28290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:08</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44267.43342592593</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29125,10 +28359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:06</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44267.43340277778</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29200,10 +28432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:06</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44267.43340277778</v>
       </c>
       <c r="I394" t="n">
         <v>273</v>
@@ -29275,10 +28505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:05</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44267.4333912037</v>
       </c>
       <c r="I395" t="n">
         <v>33</v>
@@ -29346,10 +28574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:05</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44267.4333912037</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29413,10 +28639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:05</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44267.4333912037</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29488,10 +28712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:03</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44267.43336805556</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29567,10 +28789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:02</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44267.43335648148</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29646,10 +28866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:02</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44267.43335648148</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29721,10 +28939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:24:01</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44267.4333449074</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29792,10 +29008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:23:52</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44267.43324074074</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29863,10 +29077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:23:51</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44267.43322916667</v>
       </c>
       <c r="I403" t="n">
         <v>12</v>
@@ -29934,10 +29146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:23:49</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44267.43320601852</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -30009,10 +29219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:23:47</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44267.43318287037</v>
       </c>
       <c r="I405" t="n">
         <v>1</v>
@@ -30088,10 +29296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:23:44</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44267.43314814815</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
